--- a/data/trans_orig/P14C21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15687F08-0A96-47C3-8FBC-C82EC5AE757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24922CE0-9BB6-464E-9E77-022AE08E9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BC545AD-DEDE-4B50-9521-413CF4C15C98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92D22F93-01A3-4AE8-92D1-83E5F3426CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>87,19%</t>
   </si>
   <si>
-    <t>61,09%</t>
+    <t>62,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>84,39%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,4%</t>
+    <t>34,5%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,19 +134,19 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>30,6%</t>
+    <t>23,86%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>10,17%</t>
+    <t>8,01%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>6,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,79 +158,79 @@
     <t>74,71%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>41,29%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,19 +248,19 @@
     <t>79,18%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>12,54%</t>
@@ -272,19 +272,19 @@
     <t>20,82%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>44,25%</t>
@@ -305,91 +305,88 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C3CC9-CF8D-4ED7-9931-24BD239B1D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A0C20-20E4-4BF8-8633-E23C45E53755}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,10 +1678,10 @@
         <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1737,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24922CE0-9BB6-464E-9E77-022AE08E9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97359514-7D6C-4F43-9C1B-326D9978A1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92D22F93-01A3-4AE8-92D1-83E5F3426CB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACA411B0-F6D4-407A-8C07-A91287DE882C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
-    <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
+    <t>Población según el tiempo de diagnóstico del migrañas en 2016 (Tasa respuesta: 3,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>87,19%</t>
   </si>
   <si>
-    <t>62,26%</t>
+    <t>59,18%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>84,39%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,5%</t>
+    <t>31,57%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,19 +134,19 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>23,86%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>7,22%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,79 +158,79 @@
     <t>74,71%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>39,74%</t>
+    <t>40,75%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -239,61 +239,61 @@
     <t>43,21%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>79,18%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>59,13%</t>
+    <t>48,68%</t>
   </si>
   <si>
     <t>20,82%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -305,88 +305,88 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A0C20-20E4-4BF8-8633-E23C45E53755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC52B61-610C-4E73-A3C8-DF7A386D355F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,10 +1627,10 @@
         <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,13 +1645,13 @@
         <v>7023</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1660,13 +1660,13 @@
         <v>6321</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>13344</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>116</v>
